--- a/data/Subset1_WithDialogActs/Math US2 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math US2 transcript.xlsx_with_dialog_acts.xlsx
@@ -555,12 +555,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1353,12 +1353,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1605,12 +1605,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1899,12 +1899,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1941,12 +1941,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2571,12 +2571,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2865,12 +2865,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3285,12 +3285,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3453,12 +3453,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3537,12 +3537,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3747,12 +3747,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4247,12 +4247,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4835,12 +4835,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4877,12 +4877,12 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4919,12 +4919,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5213,12 +5213,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5255,12 +5255,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5549,12 +5549,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5717,12 +5717,12 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5759,12 +5759,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5801,12 +5801,12 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5843,12 +5843,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6053,12 +6053,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6263,12 +6263,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6431,12 +6431,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6557,12 +6557,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6725,12 +6725,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6893,12 +6893,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6977,12 +6977,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7145,12 +7145,12 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7271,12 +7271,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7355,12 +7355,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7565,12 +7565,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8123,12 +8123,12 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8417,12 +8417,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8501,12 +8501,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8795,12 +8795,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8837,12 +8837,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9257,12 +9257,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9467,12 +9467,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9593,12 +9593,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10055,12 +10055,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10181,12 +10181,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10265,12 +10265,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11105,12 +11105,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11189,12 +11189,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11693,12 +11693,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11735,12 +11735,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11945,12 +11945,12 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12113,12 +12113,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12449,12 +12449,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12575,12 +12575,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13167,12 +13167,12 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13209,12 +13209,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13717,12 +13717,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13759,12 +13759,12 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14393,12 +14393,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14855,12 +14855,12 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14897,12 +14897,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14939,12 +14939,12 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15275,12 +15275,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15401,12 +15401,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15779,12 +15779,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15863,12 +15863,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16451,12 +16451,12 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16661,12 +16661,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18181,12 +18181,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18349,12 +18349,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18601,12 +18601,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19147,12 +19147,12 @@
       <c r="H445" t="inlineStr"/>
       <c r="I445" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19315,12 +19315,12 @@
       <c r="H449" t="inlineStr"/>
       <c r="I449" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19609,12 +19609,12 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19819,12 +19819,12 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20029,12 +20029,12 @@
       <c r="H466" t="inlineStr"/>
       <c r="I466" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20449,12 +20449,12 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20659,12 +20659,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20701,12 +20701,12 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20743,12 +20743,12 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20915,12 +20915,12 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21419,12 +21419,12 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21461,12 +21461,12 @@
       <c r="H500" t="inlineStr"/>
       <c r="I500" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21755,12 +21755,12 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21923,12 +21923,12 @@
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22385,12 +22385,12 @@
       <c r="H522" t="inlineStr"/>
       <c r="I522" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22637,12 +22637,12 @@
       <c r="H528" t="inlineStr"/>
       <c r="I528" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22973,12 +22973,12 @@
       <c r="H536" t="inlineStr"/>
       <c r="I536" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23351,12 +23351,12 @@
       <c r="H545" t="inlineStr"/>
       <c r="I545" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23643,12 +23643,12 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24277,12 +24277,12 @@
       <c r="H567" t="inlineStr"/>
       <c r="I567" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24445,12 +24445,12 @@
       <c r="H571" t="inlineStr"/>
       <c r="I571" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25545,12 +25545,12 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25713,12 +25713,12 @@
       <c r="H601" t="inlineStr"/>
       <c r="I601" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26175,12 +26175,12 @@
       <c r="H612" t="inlineStr"/>
       <c r="I612" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26511,12 +26511,12 @@
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26553,12 +26553,12 @@
       <c r="H621" t="inlineStr"/>
       <c r="I621" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26595,12 +26595,12 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26973,12 +26973,12 @@
       <c r="H631" t="inlineStr"/>
       <c r="I631" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27015,12 +27015,12 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27057,12 +27057,12 @@
       <c r="H633" t="inlineStr"/>
       <c r="I633" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27435,12 +27435,12 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28359,12 +28359,12 @@
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28611,12 +28611,12 @@
       <c r="H670" t="inlineStr"/>
       <c r="I670" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28951,12 +28951,12 @@
       <c r="H678" t="inlineStr"/>
       <c r="I678" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29161,12 +29161,12 @@
       <c r="H683" t="inlineStr"/>
       <c r="I683" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29371,12 +29371,12 @@
       <c r="H688" t="inlineStr"/>
       <c r="I688" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29539,12 +29539,12 @@
       <c r="H692" t="inlineStr"/>
       <c r="I692" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30331,12 +30331,12 @@
       <c r="H711" t="inlineStr"/>
       <c r="I711" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -30457,12 +30457,12 @@
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -30835,12 +30835,12 @@
       <c r="H723" t="inlineStr"/>
       <c r="I723" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -31549,12 +31549,12 @@
       <c r="H740" t="inlineStr"/>
       <c r="I740" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -32137,12 +32137,12 @@
       <c r="H754" t="inlineStr"/>
       <c r="I754" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -32263,12 +32263,12 @@
       <c r="H757" t="inlineStr"/>
       <c r="I757" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J757" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -32431,12 +32431,12 @@
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J761" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32641,12 +32641,12 @@
       <c r="H766" t="inlineStr"/>
       <c r="I766" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J766" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -32939,12 +32939,12 @@
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33825,12 +33825,12 @@
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J794" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -33993,12 +33993,12 @@
       <c r="H798" t="inlineStr"/>
       <c r="I798" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J798" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34501,12 +34501,12 @@
       <c r="H810" t="inlineStr"/>
       <c r="I810" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J810" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34543,12 +34543,12 @@
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J811" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34585,12 +34585,12 @@
       <c r="H812" t="inlineStr"/>
       <c r="I812" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34627,12 +34627,12 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34753,12 +34753,12 @@
       <c r="H816" t="inlineStr"/>
       <c r="I816" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J816" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -34795,12 +34795,12 @@
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J817" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35047,12 +35047,12 @@
       <c r="H823" t="inlineStr"/>
       <c r="I823" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J823" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35299,12 +35299,12 @@
       <c r="H829" t="inlineStr"/>
       <c r="I829" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J829" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35593,12 +35593,12 @@
       <c r="H836" t="inlineStr"/>
       <c r="I836" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J836" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -35677,12 +35677,12 @@
       <c r="H838" t="inlineStr"/>
       <c r="I838" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J838" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35761,12 +35761,12 @@
       <c r="H840" t="inlineStr"/>
       <c r="I840" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J840" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36139,12 +36139,12 @@
       <c r="H849" t="inlineStr"/>
       <c r="I849" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J849" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36349,12 +36349,12 @@
       <c r="H854" t="inlineStr"/>
       <c r="I854" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J854" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36685,12 +36685,12 @@
       <c r="H862" t="inlineStr"/>
       <c r="I862" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J862" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37319,12 +37319,12 @@
       <c r="H877" t="inlineStr"/>
       <c r="I877" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J877" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -37403,12 +37403,12 @@
       <c r="H879" t="inlineStr"/>
       <c r="I879" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J879" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37905,12 +37905,12 @@
       <c r="H891" t="inlineStr"/>
       <c r="I891" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J891" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37989,12 +37989,12 @@
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J893" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38115,12 +38115,12 @@
       <c r="H896" t="inlineStr"/>
       <c r="I896" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J896" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -38203,12 +38203,12 @@
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J898" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -38245,12 +38245,12 @@
       <c r="H899" t="inlineStr"/>
       <c r="I899" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J899" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -38789,12 +38789,12 @@
       <c r="H912" t="inlineStr"/>
       <c r="I912" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J912" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -38831,12 +38831,12 @@
       <c r="H913" t="inlineStr"/>
       <c r="I913" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J913" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -39541,12 +39541,12 @@
       <c r="H930" t="inlineStr"/>
       <c r="I930" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J930" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39625,12 +39625,12 @@
       <c r="H932" t="inlineStr"/>
       <c r="I932" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J932" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39709,12 +39709,12 @@
       <c r="H934" t="inlineStr"/>
       <c r="I934" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J934" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -39751,12 +39751,12 @@
       <c r="H935" t="inlineStr"/>
       <c r="I935" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J935" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -39793,12 +39793,12 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J936" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39877,12 +39877,12 @@
       <c r="H938" t="inlineStr"/>
       <c r="I938" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J938" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39919,12 +39919,12 @@
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J939" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -40045,12 +40045,12 @@
       <c r="H942" t="inlineStr"/>
       <c r="I942" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J942" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -40339,12 +40339,12 @@
       <c r="H949" t="inlineStr"/>
       <c r="I949" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J949" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -41011,12 +41011,12 @@
       <c r="H965" t="inlineStr"/>
       <c r="I965" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J965" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -41683,12 +41683,12 @@
       <c r="H981" t="inlineStr"/>
       <c r="I981" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J981" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -41725,12 +41725,12 @@
       <c r="H982" t="inlineStr"/>
       <c r="I982" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J982" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -41977,12 +41977,12 @@
       <c r="H988" t="inlineStr"/>
       <c r="I988" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J988" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -42821,12 +42821,12 @@
       <c r="H1008" t="inlineStr"/>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1008" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -42905,12 +42905,12 @@
       <c r="H1010" t="inlineStr"/>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1010" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -43031,12 +43031,12 @@
       <c r="H1013" t="inlineStr"/>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1013" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -43157,12 +43157,12 @@
       <c r="H1016" t="inlineStr"/>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1016" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -43283,12 +43283,12 @@
       <c r="H1019" t="inlineStr"/>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1019" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -43409,12 +43409,12 @@
       <c r="H1022" t="inlineStr"/>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1022" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -43451,12 +43451,12 @@
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1023" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -43577,12 +43577,12 @@
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1026" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -43619,12 +43619,12 @@
       <c r="H1027" t="inlineStr"/>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1027" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -44043,12 +44043,12 @@
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1037" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -44169,12 +44169,12 @@
       <c r="H1040" t="inlineStr"/>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1040" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -44337,12 +44337,12 @@
       <c r="H1044" t="inlineStr"/>
       <c r="I1044" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1044" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -44505,12 +44505,12 @@
       </c>
       <c r="I1048" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1048" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -45559,12 +45559,12 @@
       <c r="H1073" t="inlineStr"/>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1073" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -45643,12 +45643,12 @@
       </c>
       <c r="I1075" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1075" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -46105,12 +46105,12 @@
       </c>
       <c r="I1086" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1086" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -46609,12 +46609,12 @@
       <c r="H1098" t="inlineStr"/>
       <c r="I1098" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1098" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -46693,12 +46693,12 @@
       </c>
       <c r="I1100" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1100" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -46735,12 +46735,12 @@
       <c r="H1101" t="inlineStr"/>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1101" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -46777,12 +46777,12 @@
       </c>
       <c r="I1102" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1102" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -47029,12 +47029,12 @@
       <c r="H1108" t="inlineStr"/>
       <c r="I1108" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1108" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -47071,12 +47071,12 @@
       <c r="H1109" t="inlineStr"/>
       <c r="I1109" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1109" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -47407,12 +47407,12 @@
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1117" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -47533,12 +47533,12 @@
       <c r="H1120" t="inlineStr"/>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -47869,12 +47869,12 @@
       <c r="H1128" t="inlineStr"/>
       <c r="I1128" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1128" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -47911,12 +47911,12 @@
       <c r="H1129" t="inlineStr"/>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1129" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -47953,12 +47953,12 @@
       <c r="H1130" t="inlineStr"/>
       <c r="I1130" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1130" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -48163,12 +48163,12 @@
       </c>
       <c r="I1135" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1135" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -48289,12 +48289,12 @@
       <c r="H1138" t="inlineStr"/>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1138" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -48457,12 +48457,12 @@
       <c r="H1142" t="inlineStr"/>
       <c r="I1142" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1142" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -49595,12 +49595,12 @@
       <c r="H1169" t="inlineStr"/>
       <c r="I1169" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1169" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -50301,12 +50301,12 @@
       </c>
       <c r="I1186" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1186" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -50343,12 +50343,12 @@
       <c r="H1187" t="inlineStr"/>
       <c r="I1187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -50385,12 +50385,12 @@
       <c r="H1188" t="inlineStr"/>
       <c r="I1188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -50973,12 +50973,12 @@
       <c r="H1202" t="inlineStr"/>
       <c r="I1202" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1202" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -51183,12 +51183,12 @@
       <c r="H1207" t="inlineStr"/>
       <c r="I1207" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1207" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
